--- a/D3/Sprint #2 - Sprint Backlog.xlsx
+++ b/D3/Sprint #2 - Sprint Backlog.xlsx
@@ -194,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -233,12 +233,6 @@
     <font>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -313,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,7 +321,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -359,6 +352,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -741,23 +740,52 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="76.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="5" width="9" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18">
+        <v>42305</v>
+      </c>
+      <c r="D1" s="18">
+        <v>42306</v>
+      </c>
+      <c r="E1" s="18">
+        <v>42307</v>
+      </c>
+      <c r="F1" s="18">
+        <v>42310</v>
+      </c>
+      <c r="G1" s="18">
+        <v>42311</v>
+      </c>
+      <c r="H1" s="19">
+        <v>42312</v>
+      </c>
+      <c r="I1" s="18">
+        <v>42313</v>
+      </c>
+      <c r="J1" s="18">
+        <v>42314</v>
+      </c>
+      <c r="K1" s="18">
+        <v>42317</v>
+      </c>
+      <c r="L1" s="18">
+        <v>42318</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="14.45" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -801,10 +829,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2">
@@ -843,11 +871,11 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="2">
@@ -856,7 +884,7 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>0</v>
       </c>
       <c r="G4" s="2">
@@ -883,8 +911,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2">
@@ -923,8 +951,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
@@ -954,7 +982,7 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>0.5</v>
       </c>
       <c r="N6">
@@ -963,8 +991,8 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2">
@@ -1003,8 +1031,8 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
@@ -1043,8 +1071,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
@@ -1083,29 +1111,29 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="10">
         <v>0</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
+      <c r="I10" s="9">
+        <v>1.5</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1113,12 +1141,12 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>0.5</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1126,60 +1154,60 @@
         <v>13</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f t="shared" ref="C12:L12" si="1">SUM(C3:C10)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <f>B14</f>
-        <v>6</v>
-      </c>
-      <c r="O12" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="O12" s="11"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <f>SUM(N3:N10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1"/>

--- a/D3/Sprint #2 - Sprint Backlog.xlsx
+++ b/D3/Sprint #2 - Sprint Backlog.xlsx
@@ -1,104 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\GitHub\team14-course-project\D3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9840"/>
+    <workbookView windowWidth="22950" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>User Story</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Day 1</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 7</t>
-  </si>
-  <si>
-    <t>Day 8</t>
-  </si>
-  <si>
-    <t>Day 9</t>
-  </si>
-  <si>
-    <t>Day 10</t>
-  </si>
-  <si>
-    <t>Task Sum</t>
-  </si>
-  <si>
-    <t>Daily Work Sum</t>
-  </si>
-  <si>
-    <t>Total Work</t>
-  </si>
-  <si>
-    <t>Spike #1: Learn JavaScript</t>
-  </si>
-  <si>
-    <t>Task #1: Create XUL files for installation of Zotero Extension</t>
-  </si>
-  <si>
-    <t>Task #2: documentation of functions</t>
-  </si>
-  <si>
-    <t>Task #5: Implement a function to add a tag to multiple items</t>
-  </si>
-  <si>
-    <t>Task #4: Implement a function to delete a tag from all items containing the tag</t>
-  </si>
-  <si>
-    <t>Task #3: Implement a function to search for all relevant items, given a list of tags</t>
-  </si>
-  <si>
-    <t>Task #7: Incorporation of javascript and gui</t>
-  </si>
-  <si>
-    <t>Task #6: Implement a button on Zotero's default window for batch editing tags</t>
-  </si>
-  <si>
-    <t>As Natalie, a Historian, I want to be able to rename all identical tags at once across all files and directories</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Vincent Ho</t>
     </r>
@@ -106,16 +29,16 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="9"/>
+        <color indexed="53"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Robbie Rao</t>
     </r>
@@ -123,16 +46,16 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color indexed="17"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Nanson Zheng</t>
     </r>
@@ -140,25 +63,25 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color indexed="17"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
+        <color indexed="49"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Kirisanth Ganeshamoorthy</t>
     </r>
@@ -166,35 +89,119 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
+        <color indexed="49"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="7"/>
+        <color indexed="25"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Dimitar Stratiev</t>
     </r>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>Task Sum</t>
+  </si>
+  <si>
+    <t>As Natalie, a Historian, I want to be able to rename all identical tags at once across all files and directories</t>
+  </si>
+  <si>
+    <t>Spike #1: Learn JavaScript</t>
+  </si>
+  <si>
+    <t>Task #1: Create XUL files for installation of Zotero Extension</t>
+  </si>
+  <si>
+    <t>Task #2: documentation of functions</t>
+  </si>
+  <si>
+    <t>Task #3: Implement a function to search for all relevant items, given a list of tags</t>
+  </si>
+  <si>
+    <t>Task #4: Implement a function to delete a tag from all items containing the tag</t>
+  </si>
+  <si>
+    <t>Task #5: Implement a function to add a tag to multiple items</t>
+  </si>
+  <si>
+    <t>Task #6: Implement a button on Zotero's default window for batch editing tags</t>
+  </si>
+  <si>
+    <t>Task #7: Incorporation of javascript and gui</t>
+  </si>
+  <si>
+    <t>Daily Work Sum</t>
+  </si>
+  <si>
+    <t>Total Work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="10">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -204,49 +211,48 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
+      <color indexed="49"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7"/>
+      <color indexed="25"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -302,83 +308,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table5212" displayName="Table5212" ref="B2:L10" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table5212" displayName="Table5212" ref="B2:L10" headerRowCount="0">
   <tableColumns count="11">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -392,19 +411,14 @@
     <tableColumn id="10" name="Column10"/>
     <tableColumn id="11" name="Column11"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table8313" displayName="Table8313" ref="N2:N10" headerRowCount="0" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table8313" displayName="Table8313" ref="N2:N10" headerRowCount="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1" totalsRowFunction="custom">
-      <calculatedColumnFormula>SUM(C2:L2)</calculatedColumnFormula>
-      <totalsRowFormula>SUM(C10:L10)</totalsRowFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Column1"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -703,7 +717,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -736,383 +749,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="76.2857142857143" customWidth="1"/>
     <col min="3" max="5" width="9" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2">
         <v>42305</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="2">
         <v>42306</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="2">
         <v>42307</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="2">
         <v>42310</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="2">
         <v>42311</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="3">
         <v>42312</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="2">
         <v>42313</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="2">
         <v>42314</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="2">
         <v>42317</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="2">
         <v>42318</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.45" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="14.45" customHeight="1" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>23</v>
+    <row r="3" customHeight="1" spans="1:14">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0.5</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N10" si="0">SUM(C3:L3)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1">
-      <c r="A4" s="16"/>
+    <row r="4" customHeight="1" spans="1:14">
+      <c r="A4" s="8"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:L4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="8"/>
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:L5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8"/>
       <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="9">
         <v>0.5</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:L6)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8"/>
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:L7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8"/>
       <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:L8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="8"/>
       <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>SUM(C9:L9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -1129,100 +1143,100 @@
       <c r="G10" s="10">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="9">
         <v>1.5</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1</v>
       </c>
       <c r="L10" s="9">
         <v>0.5</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
+        <f>SUM(C10:L10)</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="13">
+      <c r="A12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15">
         <f t="shared" ref="C12:L12" si="1">SUM(C3:C10)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="13">
-        <f t="shared" si="1"/>
+      <c r="D12" s="15">
+        <f>SUM(D3:D10)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="13">
-        <f t="shared" si="1"/>
+      <c r="E12" s="15">
+        <f>SUM(E3:E10)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="13">
-        <f t="shared" si="1"/>
+      <c r="F12" s="15">
+        <f>SUM(F3:F10)</f>
         <v>0.5</v>
       </c>
-      <c r="G12" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="1"/>
+      <c r="G12" s="16">
+        <f>SUM(G3:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <f>SUM(H3:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <f>SUM(I3:I10)</f>
         <v>1.5</v>
       </c>
-      <c r="J12" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
-        <f t="shared" si="1"/>
+      <c r="J12" s="15">
+        <f>SUM(J3:J10)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="13">
+      <c r="K12" s="15">
+        <f>SUM(K3:K10)</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="15">
+        <f>SUM(L3:L10)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="15">
         <f>B14</f>
-        <v>7</v>
-      </c>
-      <c r="O12" s="11"/>
+        <v>9.5</v>
+      </c>
+      <c r="O12" s="20"/>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="12">
+    <row r="14" spans="1:2">
+      <c r="A14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="18">
         <f>SUM(N3:N10)</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1"/>
+    <row r="18" customHeight="1"/>
+    <row r="19" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/D3/Sprint #2 - Sprint Backlog.xlsx
+++ b/D3/Sprint #2 - Sprint Backlog.xlsx
@@ -191,17 +191,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -228,12 +222,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -312,31 +300,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -345,25 +333,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -371,14 +359,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -754,7 +742,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -877,11 +865,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N10" si="0">SUM(C3:L3)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:14">
@@ -1206,12 +1194,12 @@
       </c>
       <c r="L12" s="15">
         <f>SUM(L3:L10)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="15">
         <f>B14</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O12" s="20"/>
     </row>
@@ -1221,7 +1209,7 @@
       </c>
       <c r="B14" s="18">
         <f>SUM(N3:N10)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customHeight="1"/>
